--- a/openpxyl-testing/test.xlsx
+++ b/openpxyl-testing/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,17 @@
           <t>age</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -442,6 +453,15 @@
       <c r="B2" t="n">
         <v>26</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>brit</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -450,6 +470,15 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>hank</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>27</v>
       </c>
     </row>
